--- a/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,16; 23,8</t>
+          <t>14,61; 24,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,59; 42,2</t>
+          <t>30,65; 42,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,62</t>
+          <t>1,34; 6,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,61; 21,84</t>
+          <t>12,56; 22,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,42; 54,72</t>
+          <t>43,16; 54,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,82</t>
+          <t>2,27; 5,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,87; 21,46</t>
+          <t>14,35; 21,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,17; 46,76</t>
+          <t>38,13; 46,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,0</t>
+          <t>2,19; 4,95</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,49; 37,58</t>
+          <t>28,81; 37,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,6; 43,82</t>
+          <t>34,36; 43,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>49,89; 59,05</t>
+          <t>50,03; 59,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,06</t>
+          <t>11,04; 19,07</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,3; 40,1</t>
+          <t>31,79; 40,61</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 46,46</t>
+          <t>37,66; 46,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,98; 56,23</t>
+          <t>47,39; 56,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,32</t>
+          <t>10,88; 15,99</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,46; 37,75</t>
+          <t>31,67; 37,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>36,83; 43,31</t>
+          <t>37,07; 43,42</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,97; 56,33</t>
+          <t>50,3; 56,8</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,67</t>
+          <t>11,64; 16,38</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 26,61</t>
+          <t>17,11; 26,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,7; 51,32</t>
+          <t>40,52; 51,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,09; 36,44</t>
+          <t>26,53; 36,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,47; 28,47</t>
+          <t>19,09; 28,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,34; 43,71</t>
+          <t>33,36; 44,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,52; 57,92</t>
+          <t>46,87; 57,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,21; 33,37</t>
+          <t>23,58; 33,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 25,66</t>
+          <t>17,84; 25,91</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,88; 33,97</t>
+          <t>27,28; 34,39</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,15; 52,87</t>
+          <t>44,96; 52,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,07; 33,17</t>
+          <t>26,17; 33,02</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,83</t>
+          <t>19,86; 25,76</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,1; 34,19</t>
+          <t>25,14; 34,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 42,17</t>
+          <t>34,49; 42,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,52; 36,5</t>
+          <t>26,15; 36,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,11</t>
+          <t>15,75; 25,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,3; 29,25</t>
+          <t>20,76; 29,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,56; 46,81</t>
+          <t>38,99; 46,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,79; 41,05</t>
+          <t>31,13; 41,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 24,7</t>
+          <t>16,15; 24,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,73; 30,22</t>
+          <t>23,77; 30,62</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,56; 43,13</t>
+          <t>37,72; 43,46</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,17; 37,34</t>
+          <t>30,63; 37,66</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,9</t>
+          <t>17,19; 23,77</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,11; 54,1</t>
+          <t>40,12; 54,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>62,45; 75,72</t>
+          <t>63,14; 76,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 28,7</t>
+          <t>17,64; 28,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,1</t>
+          <t>2,65; 8,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,65; 51,35</t>
+          <t>37,63; 51,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,22; 68,16</t>
+          <t>55,48; 68,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,68; 30,47</t>
+          <t>18,99; 30,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,97</t>
+          <t>0,98; 5,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,56; 50,33</t>
+          <t>40,56; 50,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>60,76; 70,13</t>
+          <t>61,12; 70,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,97; 27,65</t>
+          <t>19,35; 27,62</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,28</t>
+          <t>2,03; 5,03</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,81; 21,48</t>
+          <t>12,58; 21,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,42; 57,51</t>
+          <t>44,77; 57,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,85; 46,19</t>
+          <t>33,91; 45,42</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,16; 24,08</t>
+          <t>15,59; 24,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,23; 34,24</t>
+          <t>23,64; 33,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,3; 49,52</t>
+          <t>37,49; 49,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>26,77; 38,8</t>
+          <t>27,4; 38,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,13; 25,27</t>
+          <t>16,94; 25,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,22</t>
+          <t>19,27; 26,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,49; 51,88</t>
+          <t>42,52; 51,41</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,98; 40,51</t>
+          <t>32,01; 40,07</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 23,63</t>
+          <t>17,49; 23,73</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,68; 27,31</t>
+          <t>19,98; 27,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,33; 46,1</t>
+          <t>38,22; 46,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,97; 43,12</t>
+          <t>35,08; 42,95</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,66</t>
+          <t>27,96; 37,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,43; 37,24</t>
+          <t>29,41; 36,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,51; 44,17</t>
+          <t>36,24; 44,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,79; 44,69</t>
+          <t>37,01; 44,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,36; 65,21</t>
+          <t>35,17; 65,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,49; 30,78</t>
+          <t>25,74; 31,04</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,25; 43,61</t>
+          <t>37,97; 44,14</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,06; 42,6</t>
+          <t>37,2; 42,29</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,56; 53,57</t>
+          <t>33,39; 54,68</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,79; 42,98</t>
+          <t>35,62; 43,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,06; 28,59</t>
+          <t>22,21; 28,42</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,85; 31,18</t>
+          <t>25,24; 31,54</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,06; 17,09</t>
+          <t>11,28; 17,14</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,09; 46,25</t>
+          <t>38,76; 46,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,69</t>
+          <t>20,86; 26,61</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,56; 30,89</t>
+          <t>24,33; 30,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,3</t>
+          <t>17,81; 23,31</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,46; 43,6</t>
+          <t>38,34; 43,48</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,28; 26,8</t>
+          <t>22,23; 26,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25,54; 30,06</t>
+          <t>25,6; 30,01</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,43</t>
+          <t>15,18; 19,43</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,09; 31,18</t>
+          <t>27,79; 31,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,95; 41,44</t>
+          <t>37,96; 41,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>34,32; 37,59</t>
+          <t>34,35; 37,64</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,81</t>
+          <t>16,74; 19,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,88; 36,13</t>
+          <t>32,7; 36,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,26; 41,64</t>
+          <t>38,27; 41,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,91; 38,3</t>
+          <t>34,99; 38,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,52; 31,36</t>
+          <t>19,51; 30,83</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,17</t>
+          <t>30,83; 33,15</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>38,48; 40,98</t>
+          <t>38,49; 40,97</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>35,15; 37,43</t>
+          <t>35,12; 37,41</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,74; 25,48</t>
+          <t>18,78; 24,7</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,61; 24,46</t>
+          <t>13,65; 23,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,65; 42,38</t>
+          <t>30,73; 42,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,56; 22,07</t>
+          <t>12,44; 21,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>43,16; 54,86</t>
+          <t>42,47; 54,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,35; 21,01</t>
+          <t>14,72; 21,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,13; 46,98</t>
+          <t>38,7; 46,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,81; 37,49</t>
+          <t>28,69; 37,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,36; 43,07</t>
+          <t>34,24; 43,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,03; 59,11</t>
+          <t>50,02; 59,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 40,61</t>
+          <t>32,07; 40,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,66; 46,32</t>
+          <t>37,39; 46,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>47,39; 56,43</t>
+          <t>46,9; 56,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,67; 37,85</t>
+          <t>31,47; 37,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,07; 43,42</t>
+          <t>37,42; 43,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>50,3; 56,8</t>
+          <t>49,92; 56,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,11; 26,74</t>
+          <t>17,47; 26,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,52; 51,06</t>
+          <t>39,7; 50,91</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,53; 36,53</t>
+          <t>26,24; 36,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,36; 44,1</t>
+          <t>33,38; 44,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,87; 57,97</t>
+          <t>46,45; 58,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,58; 33,22</t>
+          <t>23,67; 33,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,28; 34,39</t>
+          <t>26,8; 34,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,96; 52,69</t>
+          <t>45,07; 53,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,17; 33,02</t>
+          <t>26,34; 33,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,14; 34,03</t>
+          <t>24,31; 34,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,49; 42,39</t>
+          <t>34,08; 42,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,15; 36,04</t>
+          <t>26,33; 36,03</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,76; 29,39</t>
+          <t>20,63; 29,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,99; 46,74</t>
+          <t>38,9; 47,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,13; 41,34</t>
+          <t>31,07; 41,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,77; 30,62</t>
+          <t>23,89; 30,35</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,72; 43,46</t>
+          <t>37,82; 43,29</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,63; 37,66</t>
+          <t>30,41; 37,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,12; 54,0</t>
+          <t>39,72; 54,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,14; 76,17</t>
+          <t>63,22; 75,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,64; 28,68</t>
+          <t>17,67; 29,23</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,63; 51,09</t>
+          <t>37,69; 51,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,48; 68,48</t>
+          <t>55,38; 68,89</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,99; 30,4</t>
+          <t>18,9; 29,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,56; 50,51</t>
+          <t>40,74; 50,66</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,12; 70,4</t>
+          <t>61,18; 70,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,35; 27,62</t>
+          <t>19,87; 28,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,58; 21,59</t>
+          <t>12,91; 21,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>44,77; 57,28</t>
+          <t>45,18; 57,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>33,91; 45,42</t>
+          <t>34,05; 45,72</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,64; 33,95</t>
+          <t>23,19; 34,13</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,49; 49,72</t>
+          <t>37,3; 49,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,4; 38,64</t>
+          <t>27,54; 38,41</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,27; 26,37</t>
+          <t>19,16; 26,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,52; 51,41</t>
+          <t>42,9; 51,42</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>32,01; 40,07</t>
+          <t>31,85; 40,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,98; 27,06</t>
+          <t>20,45; 27,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,22; 46,38</t>
+          <t>38,35; 46,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>35,08; 42,95</t>
+          <t>34,88; 42,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,41; 36,91</t>
+          <t>29,19; 36,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,24; 44,19</t>
+          <t>36,59; 44,03</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>37,01; 44,55</t>
+          <t>36,99; 44,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,74; 31,04</t>
+          <t>25,67; 30,96</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>37,97; 44,14</t>
+          <t>38,41; 43,82</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,2; 42,29</t>
+          <t>37,0; 42,27</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,62; 43,28</t>
+          <t>35,7; 42,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>22,21; 28,42</t>
+          <t>21,83; 28,18</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,24; 31,54</t>
+          <t>25,06; 32,11</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,76; 46,05</t>
+          <t>39,03; 46,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,86; 26,61</t>
+          <t>20,63; 26,71</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,33; 30,82</t>
+          <t>24,42; 30,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,34; 43,48</t>
+          <t>38,4; 43,59</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,23; 26,69</t>
+          <t>22,3; 26,5</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25,6; 30,01</t>
+          <t>25,17; 29,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,79; 31,0</t>
+          <t>27,96; 31,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>37,96; 41,46</t>
+          <t>38,09; 41,45</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>34,35; 37,64</t>
+          <t>34,27; 37,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,7; 36,06</t>
+          <t>32,8; 36,06</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,27; 41,56</t>
+          <t>38,1; 41,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,99; 38,29</t>
+          <t>34,98; 38,29</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,83; 33,15</t>
+          <t>30,85; 33,16</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>38,49; 40,97</t>
+          <t>38,61; 40,96</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>35,12; 37,41</t>
+          <t>35,1; 37,41</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con algún problema medioambiental importante en la zona de residencia</t>
+          <t>Población con algún problema medioambiental en la zona de residencia</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 23,82</t>
+          <t>14,16; 23,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,73; 42,78</t>
+          <t>30,59; 42,2</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,29</t>
+          <t>1,25; 5,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,44; 21,37</t>
+          <t>12,61; 21,84</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>42,47; 54,56</t>
+          <t>42,42; 54,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 5,86</t>
+          <t>2,23; 5,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,72; 21,27</t>
+          <t>14,87; 21,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38,7; 46,95</t>
+          <t>38,17; 46,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,95</t>
+          <t>2,2; 5,0</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>28,69; 37,22</t>
+          <t>28,49; 37,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,24; 43,37</t>
+          <t>34,6; 43,82</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>50,02; 59,15</t>
+          <t>49,89; 59,05</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,04; 19,07</t>
+          <t>11,09; 19,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,07; 40,59</t>
+          <t>31,3; 40,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,54</t>
+          <t>37,6; 46,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,9; 56,27</t>
+          <t>46,98; 56,23</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,88; 15,99</t>
+          <t>10,7; 16,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>31,47; 37,67</t>
+          <t>31,46; 37,75</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>37,42; 43,36</t>
+          <t>36,83; 43,31</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>49,92; 56,5</t>
+          <t>49,97; 56,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,64; 16,38</t>
+          <t>11,58; 16,67</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,47; 26,67</t>
+          <t>17,42; 26,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>39,7; 50,91</t>
+          <t>39,7; 51,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,24; 36,15</t>
+          <t>26,09; 36,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,09; 28,85</t>
+          <t>19,47; 28,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,38; 44,24</t>
+          <t>33,34; 43,71</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,45; 58,1</t>
+          <t>46,52; 57,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,67; 33,48</t>
+          <t>23,21; 33,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 25,91</t>
+          <t>18,09; 25,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 34,32</t>
+          <t>26,88; 33,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,07; 53,1</t>
+          <t>45,15; 52,87</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,34; 33,32</t>
+          <t>26,07; 33,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,86; 25,76</t>
+          <t>19,89; 25,83</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 34,1</t>
+          <t>25,1; 34,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,08; 42,23</t>
+          <t>34,31; 42,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,33; 36,03</t>
+          <t>26,52; 36,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 25,96</t>
+          <t>15,89; 27,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,63; 29,08</t>
+          <t>20,3; 29,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,9; 47,23</t>
+          <t>38,56; 46,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>31,07; 41,4</t>
+          <t>30,79; 41,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,15; 24,61</t>
+          <t>16,27; 24,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 30,35</t>
+          <t>23,73; 30,22</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,82; 43,29</t>
+          <t>37,56; 43,13</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,41; 37,55</t>
+          <t>30,17; 37,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,19; 23,77</t>
+          <t>17,34; 23,9</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,72; 54,17</t>
+          <t>40,11; 54,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,22; 75,63</t>
+          <t>62,45; 75,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>17,67; 29,23</t>
+          <t>17,67; 28,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 8,44</t>
+          <t>2,6; 8,1</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,69; 51,12</t>
+          <t>37,65; 51,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,38; 68,89</t>
+          <t>55,22; 68,16</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>18,9; 29,94</t>
+          <t>18,68; 30,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,05</t>
+          <t>1,09; 4,97</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>40,74; 50,66</t>
+          <t>40,56; 50,33</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>61,18; 70,6</t>
+          <t>60,76; 70,13</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 28,41</t>
+          <t>19,97; 27,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,03; 5,03</t>
+          <t>2,0; 5,28</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>12,91; 21,67</t>
+          <t>12,81; 21,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,18; 57,83</t>
+          <t>45,42; 57,51</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>34,05; 45,72</t>
+          <t>33,85; 46,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 24,6</t>
+          <t>15,16; 24,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>23,19; 34,13</t>
+          <t>23,23; 34,24</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,3; 49,67</t>
+          <t>37,3; 49,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,54; 38,41</t>
+          <t>26,77; 38,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,94; 25,6</t>
+          <t>17,13; 25,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>19,16; 26,12</t>
+          <t>19,16; 26,22</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,9; 51,42</t>
+          <t>42,49; 51,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>31,85; 40,08</t>
+          <t>31,98; 40,51</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,49; 23,73</t>
+          <t>17,45; 23,63</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>20,45; 27,17</t>
+          <t>19,68; 27,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>38,35; 46,2</t>
+          <t>38,33; 46,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>34,88; 42,72</t>
+          <t>34,97; 43,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,96; 37,13</t>
+          <t>28,58; 36,66</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>29,19; 36,55</t>
+          <t>29,43; 37,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>36,59; 44,03</t>
+          <t>36,51; 44,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>36,99; 44,69</t>
+          <t>36,79; 44,69</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,17; 65,21</t>
+          <t>35,36; 65,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,67; 30,96</t>
+          <t>25,49; 30,78</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>38,41; 43,82</t>
+          <t>38,25; 43,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>37,0; 42,27</t>
+          <t>37,06; 42,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,39; 54,68</t>
+          <t>33,56; 53,57</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>35,7; 42,95</t>
+          <t>35,79; 42,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>21,83; 28,18</t>
+          <t>22,06; 28,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,06; 32,11</t>
+          <t>24,85; 31,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,28; 17,14</t>
+          <t>11,06; 17,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>39,03; 46,53</t>
+          <t>39,09; 46,25</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>20,63; 26,71</t>
+          <t>20,73; 26,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>24,42; 30,96</t>
+          <t>24,56; 30,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,81; 23,31</t>
+          <t>17,99; 23,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>38,4; 43,59</t>
+          <t>38,46; 43,6</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,3; 26,5</t>
+          <t>22,28; 26,8</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>25,17; 29,91</t>
+          <t>25,54; 30,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,18; 19,43</t>
+          <t>15,3; 19,43</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,96; 31,08</t>
+          <t>28,09; 31,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>38,09; 41,45</t>
+          <t>37,95; 41,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>34,27; 37,61</t>
+          <t>34,32; 37,59</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,74; 19,71</t>
+          <t>16,7; 19,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>32,8; 36,06</t>
+          <t>32,88; 36,13</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>38,1; 41,54</t>
+          <t>38,26; 41,64</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,98; 38,29</t>
+          <t>34,91; 38,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,51; 30,83</t>
+          <t>19,52; 31,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>30,85; 33,16</t>
+          <t>30,77; 33,17</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>38,61; 40,96</t>
+          <t>38,48; 40,98</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>35,1; 37,41</t>
+          <t>35,15; 37,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,78; 24,7</t>
+          <t>18,74; 25,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P5_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,31%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>3,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,99%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,36%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,21; 50,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,62</t>
+          <t>1,26; 5,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,05; 51,9</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,82</t>
+          <t>2,17; 5,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,97; 49,86</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,2; 5,0</t>
+          <t>2,16; 5,13</t>
         </is>
       </c>
     </row>
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,36%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,95%</t>
+          <t>13,98%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,06</t>
+          <t>10,99; 19,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,7; 16,32</t>
+          <t>10,73; 16,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,67</t>
+          <t>11,51; 16,78</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,64%</t>
+          <t>22,6%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19,47; 28,47</t>
+          <t>19,37; 28,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,09; 25,66</t>
+          <t>18,02; 25,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,89; 25,83</t>
+          <t>19,87; 25,89</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>32,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>20,67%</t>
+          <t>20,69%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>42,81%</t>
+          <t>40,97%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,96%</t>
+          <t>16,5%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>40,44%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>20,26%</t>
+          <t>18,16%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>34,31; 42,17</t>
+          <t>28,32; 38,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,89; 27,11</t>
+          <t>15,78; 27,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,56; 46,81</t>
+          <t>36,08; 45,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,27; 24,7</t>
+          <t>9,78; 21,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>37,56; 43,13</t>
+          <t>33,19; 40,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,34; 23,9</t>
+          <t>13,73; 22,23</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,6; 8,1</t>
+          <t>2,59; 7,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,97</t>
+          <t>0,85; 4,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,28</t>
+          <t>1,72; 5,0</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,55%</t>
+          <t>19,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>20,2%</t>
+          <t>19,97%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>15,16; 24,08</t>
+          <t>14,9; 23,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,13; 25,27</t>
+          <t>17,0; 25,08</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>17,45; 23,63</t>
+          <t>17,21; 23,38</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>32,31%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>39,47%</t>
+          <t>43,53%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,66</t>
+          <t>28,69; 37,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>35,36; 65,21</t>
+          <t>35,1; 75,46</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>33,56; 53,57</t>
+          <t>33,6; 63,82</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14,31%</t>
+          <t>11,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>20,38%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>15,3%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,06; 17,09</t>
+          <t>4,92; 16,33</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,99; 23,3</t>
+          <t>18,06; 23,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>15,3; 19,43</t>
+          <t>9,55; 18,66</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>18,2%</t>
+          <t>17,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>22,23%</t>
+          <t>23,58%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>20,5%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,81</t>
+          <t>13,48; 19,33</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>19,52; 31,36</t>
+          <t>18,64; 39,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>18,74; 25,48</t>
+          <t>17,68; 29,44</t>
         </is>
       </c>
     </row>
